--- a/Data/427-Kostensimuation-Szenarien.xlsx
+++ b/Data/427-Kostensimuation-Szenarien.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\aData\sawu2015\aProjekte\24C_Innovage\Projekt-427-Psychotherapie für Geflüchtete\aBudgetSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\zWORK\zGithub\Innovage427\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B3218-DD33-4FC6-A04A-50008193E031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E63CF-35FF-463F-973C-F054CEA71A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
   <si>
     <t>Typ</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A296D3FE-3472-41FD-9FFF-00BF6F084FBF}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -642,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -657,13 +657,97 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43</v>
+      </c>
       <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>53</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
